--- a/output/RPS_22354037000150.xlsx
+++ b/output/RPS_22354037000150.xlsx
@@ -1087,10 +1087,10 @@
         <v>44165</v>
       </c>
       <c r="B64">
-        <v>0.7581534000000001</v>
+        <v>0.7633350000000001</v>
       </c>
       <c r="C64">
-        <v>-0.01021523012993242</v>
+        <v>-0.007298153176602429</v>
       </c>
     </row>
   </sheetData>

--- a/output/RPS_22354037000150.xlsx
+++ b/output/RPS_22354037000150.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>RPS TOTAL RETURN D60 FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42277</v>
       </c>
@@ -411,686 +405,500 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42308</v>
       </c>
       <c r="B3">
         <v>-0.03428739999999997</v>
       </c>
-      <c r="C3">
-        <v>-0.03428739999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42338</v>
       </c>
       <c r="B4">
-        <v>-0.05815239999999999</v>
-      </c>
-      <c r="C4">
         <v>-0.02471232124340106</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42369</v>
       </c>
       <c r="B5">
-        <v>-0.0496122</v>
-      </c>
-      <c r="C5">
         <v>0.009067496694794341</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42400</v>
       </c>
       <c r="B6">
-        <v>-0.08704009999999995</v>
-      </c>
-      <c r="C6">
         <v>-0.03938171344371211</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42429</v>
       </c>
       <c r="B7">
-        <v>-0.06294310000000003</v>
-      </c>
-      <c r="C7">
         <v>0.02639436847116716</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42460</v>
       </c>
       <c r="B8">
-        <v>-0.04979789999999995</v>
-      </c>
-      <c r="C8">
         <v>0.01402817694421765</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42490</v>
       </c>
       <c r="B9">
-        <v>-0.03252659999999996</v>
-      </c>
-      <c r="C9">
         <v>0.01817644898911497</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42521</v>
       </c>
       <c r="B10">
-        <v>-0.05058240000000003</v>
-      </c>
-      <c r="C10">
         <v>-0.0186628386888984</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42551</v>
       </c>
       <c r="B11">
-        <v>-0.01827089999999998</v>
-      </c>
-      <c r="C11">
         <v>0.03403296926452604</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42582</v>
       </c>
       <c r="B12">
-        <v>0.06859689999999996</v>
-      </c>
-      <c r="C12">
         <v>0.08848449129194602</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42613</v>
       </c>
       <c r="B13">
-        <v>0.1176215</v>
-      </c>
-      <c r="C13">
         <v>0.04587754278531042</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42643</v>
       </c>
       <c r="B14">
-        <v>0.1273124000000001</v>
-      </c>
-      <c r="C14">
         <v>0.008671003555318135</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42674</v>
       </c>
       <c r="B15">
-        <v>0.1883764000000001</v>
-      </c>
-      <c r="C15">
         <v>0.05416777106328285</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42704</v>
       </c>
       <c r="B16">
-        <v>0.1859883</v>
-      </c>
-      <c r="C16">
         <v>-0.002009548489855684</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42735</v>
       </c>
       <c r="B17">
-        <v>0.223438</v>
-      </c>
-      <c r="C17">
         <v>0.03157678705599376</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42766</v>
       </c>
       <c r="B18">
-        <v>0.2696225000000001</v>
-      </c>
-      <c r="C18">
         <v>0.03774976745858805</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42794</v>
       </c>
       <c r="B19">
-        <v>0.3080693999999999</v>
-      </c>
-      <c r="C19">
         <v>0.03028215079679186</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42825</v>
       </c>
       <c r="B20">
-        <v>0.3079004999999999</v>
-      </c>
-      <c r="C20">
         <v>-0.0001291215894202447</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42855</v>
       </c>
       <c r="B21">
-        <v>0.3101493</v>
-      </c>
-      <c r="C21">
         <v>0.001719396850142774</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42886</v>
       </c>
       <c r="B22">
-        <v>0.2772284</v>
-      </c>
-      <c r="C22">
         <v>-0.02512759423677891</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42916</v>
       </c>
       <c r="B23">
-        <v>0.2821197</v>
-      </c>
-      <c r="C23">
         <v>0.003829620450030546</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42947</v>
       </c>
       <c r="B24">
-        <v>0.3065348999999999</v>
-      </c>
-      <c r="C24">
         <v>0.01904283975981325</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42978</v>
       </c>
       <c r="B25">
-        <v>0.3303967999999999</v>
-      </c>
-      <c r="C25">
         <v>0.01826349988813925</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43008</v>
       </c>
       <c r="B26">
-        <v>0.3842080999999999</v>
-      </c>
-      <c r="C26">
         <v>0.04044755669887357</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43039</v>
       </c>
       <c r="B27">
-        <v>0.4142783000000001</v>
-      </c>
-      <c r="C27">
         <v>0.02172375670970284</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43069</v>
       </c>
       <c r="B28">
-        <v>0.3832093000000001</v>
-      </c>
-      <c r="C28">
         <v>-0.02196809496405339</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43100</v>
       </c>
       <c r="B29">
-        <v>0.4065584</v>
-      </c>
-      <c r="C29">
         <v>0.01688038100958389</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43131</v>
       </c>
       <c r="B30">
-        <v>0.4557358</v>
-      </c>
-      <c r="C30">
         <v>0.03496292795236955</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43159</v>
       </c>
       <c r="B31">
-        <v>0.4869456999999999</v>
-      </c>
-      <c r="C31">
         <v>0.02143926116263661</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43190</v>
       </c>
       <c r="B32">
-        <v>0.5009889000000001</v>
-      </c>
-      <c r="C32">
         <v>0.009444326043647866</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43220</v>
       </c>
       <c r="B33">
-        <v>0.5385214</v>
-      </c>
-      <c r="C33">
         <v>0.02500518158395448</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43251</v>
       </c>
       <c r="B34">
-        <v>0.5513368999999999</v>
-      </c>
-      <c r="C34">
         <v>0.008329750889392917</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43281</v>
       </c>
       <c r="B35">
-        <v>0.573177</v>
-      </c>
-      <c r="C35">
         <v>0.01407824438392469</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43312</v>
       </c>
       <c r="B36">
-        <v>0.5567673</v>
-      </c>
-      <c r="C36">
         <v>-0.01043093053102107</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43343</v>
       </c>
       <c r="B37">
-        <v>0.5526582</v>
-      </c>
-      <c r="C37">
         <v>-0.00263950816541425</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43373</v>
       </c>
       <c r="B38">
-        <v>0.5631189999999999</v>
-      </c>
-      <c r="C38">
         <v>0.006737348889794159</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43404</v>
       </c>
       <c r="B39">
-        <v>0.6129131999999999</v>
-      </c>
-      <c r="C39">
         <v>0.03185566805854201</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43434</v>
       </c>
       <c r="B40">
-        <v>0.6288058999999999</v>
-      </c>
-      <c r="C40">
         <v>0.009853413066493566</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43465</v>
       </c>
       <c r="B41">
-        <v>0.6405835</v>
-      </c>
-      <c r="C41">
         <v>0.007230818601528854</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43496</v>
       </c>
       <c r="B42">
-        <v>0.6863371</v>
-      </c>
-      <c r="C42">
         <v>0.02788861402056031</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43524</v>
       </c>
       <c r="B43">
-        <v>0.6635721999999999</v>
-      </c>
-      <c r="C43">
         <v>-0.01349961404513966</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43555</v>
       </c>
       <c r="B44">
-        <v>0.6275991000000001</v>
-      </c>
-      <c r="C44">
         <v>-0.021624008864779</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43585</v>
       </c>
       <c r="B45">
-        <v>0.6296181999999999</v>
-      </c>
-      <c r="C45">
         <v>0.001240538901747801</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43616</v>
       </c>
       <c r="B46">
-        <v>0.6388069999999999</v>
-      </c>
-      <c r="C46">
         <v>0.005638621365421592</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43646</v>
       </c>
       <c r="B47">
-        <v>0.6817013999999999</v>
-      </c>
-      <c r="C47">
         <v>0.02617416205813128</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43677</v>
       </c>
       <c r="B48">
-        <v>0.7216347000000001</v>
-      </c>
-      <c r="C48">
         <v>0.02374577317947191</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43708</v>
       </c>
       <c r="B49">
-        <v>0.6642011999999999</v>
-      </c>
-      <c r="C49">
         <v>-0.03335986431964932</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43738</v>
       </c>
       <c r="B50">
-        <v>0.6313042</v>
-      </c>
-      <c r="C50">
         <v>-0.01976744158098187</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43769</v>
       </c>
       <c r="B51">
-        <v>0.6808308000000001</v>
-      </c>
-      <c r="C51">
         <v>0.03036012535246346</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43799</v>
       </c>
       <c r="B52">
-        <v>0.6905002</v>
-      </c>
-      <c r="C52">
         <v>0.005752750366069037</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43830</v>
       </c>
       <c r="B53">
-        <v>0.8129257999999999</v>
-      </c>
-      <c r="C53">
         <v>0.07241974890035507</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43861</v>
       </c>
       <c r="B54">
-        <v>0.8526034</v>
-      </c>
-      <c r="C54">
         <v>0.02188594811767808</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43890</v>
       </c>
       <c r="B55">
-        <v>0.7352137999999999</v>
-      </c>
-      <c r="C55">
         <v>-0.06336466833646104</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43921</v>
       </c>
       <c r="B56">
-        <v>0.6065830000000001</v>
-      </c>
-      <c r="C56">
         <v>-0.07412965480103939</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43951</v>
       </c>
       <c r="B57">
-        <v>0.6586802</v>
-      </c>
-      <c r="C57">
         <v>0.03242733179673873</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43982</v>
       </c>
       <c r="B58">
-        <v>0.6338501999999999</v>
-      </c>
-      <c r="C58">
         <v>-0.01496973316495853</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>44012</v>
       </c>
       <c r="B59">
-        <v>0.7209608000000001</v>
-      </c>
-      <c r="C59">
         <v>0.05331614856735345</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>44043</v>
       </c>
       <c r="B60">
-        <v>0.7929689</v>
-      </c>
-      <c r="C60">
         <v>0.04184180139373295</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>44074</v>
       </c>
       <c r="B61">
-        <v>0.8234139</v>
-      </c>
-      <c r="C61">
         <v>0.01698021644435666</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>44104</v>
       </c>
       <c r="B62">
-        <v>0.7441568999999999</v>
-      </c>
-      <c r="C62">
         <v>-0.04346626950688492</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>44135</v>
       </c>
       <c r="B63">
-        <v>0.7762986999999999</v>
-      </c>
-      <c r="C63">
         <v>0.01842827328206531</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>44165</v>
       </c>
       <c r="B64">
-        <v>0.7633350000000001</v>
-      </c>
-      <c r="C64">
-        <v>-0.007298153176602429</v>
+        <v>-0.01947831184023274</v>
       </c>
     </row>
   </sheetData>
